--- a/data/aurignacian-periods.xlsx
+++ b/data/aurignacian-periods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E0759-04A3-9549-9758-2039F1703EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A5DD8-5EE5-E34F-B40C-E56077E05DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,12 +68,6 @@
     <t>Backed microblade, more varied tool kits, beginnings of Gravettian influence</t>
   </si>
   <si>
-    <t>36.8 - 32</t>
-  </si>
-  <si>
-    <t>39.8 - 37.9</t>
-  </si>
-  <si>
     <t>41.5 - 39.8</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>Greenland Interstadial 8 - 6</t>
+  </si>
+  <si>
+    <t>37.8 - 32</t>
+  </si>
+  <si>
+    <t>39.8 - 37.8</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,13 +503,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -531,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -545,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/aurignacian-periods.xlsx
+++ b/data/aurignacian-periods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Independent Research Study/SignBase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A5DD8-5EE5-E34F-B40C-E56077E05DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D389E7E-C798-2845-B36C-12D4EB02D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,31 +71,31 @@
     <t>41.5 - 39.8</t>
   </si>
   <si>
-    <t>Sidescrapers, bladelets, split-base points, flake production scheme, Mousterian influencs still present</t>
-  </si>
-  <si>
     <t>43 -  41.5</t>
   </si>
   <si>
-    <t>Large, straight bladelets from priasmatic and pyrimidal cores,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland Interstadial 11 </t>
-  </si>
-  <si>
-    <t>Greenland interstadial 9 and 10</t>
-  </si>
-  <si>
-    <t>Begins with Henrich stadial, ends with Greenland Interstadial 8</t>
-  </si>
-  <si>
-    <t>Greenland Interstadial 8 - 6</t>
-  </si>
-  <si>
     <t>37.8 - 32</t>
   </si>
   <si>
     <t>39.8 - 37.8</t>
+  </si>
+  <si>
+    <t>Large, straight bladelets from prismatic and pyrimidal cores</t>
+  </si>
+  <si>
+    <t>Sidescrapers, bladelets, split-base points, flake production scheme, Mousterian influences still present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GI 11 </t>
+  </si>
+  <si>
+    <t>GI 9 and 10</t>
+  </si>
+  <si>
+    <t>Begins with Henrich stadial, ends with GI 8</t>
+  </si>
+  <si>
+    <t>GI 8 - 6</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -520,24 +520,24 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -545,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/aurignacian-periods.xlsx
+++ b/data/aurignacian-periods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Independent Research Study/SignBase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D389E7E-C798-2845-B36C-12D4EB02D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F2AB7-D7FE-9A4B-99FB-4215D072428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,16 +86,16 @@
     <t>Sidescrapers, bladelets, split-base points, flake production scheme, Mousterian influences still present</t>
   </si>
   <si>
-    <t xml:space="preserve">GI 11 </t>
-  </si>
-  <si>
     <t>GI 9 and 10</t>
   </si>
   <si>
-    <t>Begins with Henrich stadial, ends with GI 8</t>
-  </si>
-  <si>
     <t>GI 8 - 6</t>
+  </si>
+  <si>
+    <t>Preceeded by Greenland Stadial 12, ends with GI 11</t>
+  </si>
+  <si>
+    <t>Begins with Henrich Stadial, ends with GI 8</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/aurignacian-periods.xlsx
+++ b/data/aurignacian-periods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Independent Research Study/SignBase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F2AB7-D7FE-9A4B-99FB-4215D072428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29507320-B411-8841-828B-EBA81E2C05D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>Preceeded by Greenland Stadial 12, ends with GI 11</t>
   </si>
   <si>
-    <t>Begins with Henrich Stadial, ends with GI 8</t>
+    <t>Begins with Henrich Stadial 4, ends with GI 8</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>

--- a/data/aurignacian-periods.xlsx
+++ b/data/aurignacian-periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecooper/Independent Research Study/SignBase/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmarwick/Downloads/SignBase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29507320-B411-8841-828B-EBA81E2C05D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F391AF0-6FC0-0C42-A290-7150D8DD7171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
+    <workbookView xWindow="7620" yWindow="760" windowWidth="21180" windowHeight="16600" xr2:uid="{79486DA5-00F7-8844-88EA-52FFFB3FA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -92,10 +91,10 @@
     <t>GI 8 - 6</t>
   </si>
   <si>
-    <t>Preceeded by Greenland Stadial 12, ends with GI 11</t>
-  </si>
-  <si>
     <t>Begins with Henrich Stadial 4, ends with GI 8</t>
+  </si>
+  <si>
+    <t>Preceded by Greenland Stadial 12, ends with GI 11</t>
   </si>
 </sst>
 </file>
@@ -473,7 +472,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -537,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
